--- a/fitting_results/channel_weights(advanced_models, LRCM, target_LDMI).xlsx
+++ b/fitting_results/channel_weights(advanced_models, LRCM, target_LDMI).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\fitting_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98EB67A-C047-4663-8739-A54639E5EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC1D5BB-9268-4A5A-A83B-C7C81BAE3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="joint_scatter" sheetId="10" r:id="rId1"/>
@@ -245,6 +245,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -795,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0FA3D9-28F0-495E-9171-DA6EC0CB14B4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -4064,7 +4065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
